--- a/main/df_train_results.xlsx
+++ b/main/df_train_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,90 +436,145 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Lags</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>n_years_train</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>m_years_train</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Start_train</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Start_valid</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dropout</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Neurons</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Batch Size</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Learning Rate</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Optimizer</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Patience</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>best_train_loss</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>best_train_accu</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>best_train_AUC</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>best_train_epoch_loss</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>best_train_epoch_accu</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>best_train_epoch_AUC</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>best_valid_loss</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>best_valid_accu</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>best_valid_AUC</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>best_valid_epoch_loss</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>best_valid_epoch_accu</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>best_valid_epoch_AUC</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>last_train_loss</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>last_train_accu</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>last_train_AUC</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>last_valid_loss</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>last_valid_accu</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>last_valid_AUC</t>
         </is>
@@ -527,226 +582,449 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2000-02-24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2004-02-24</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" t="n">
+        <v>32</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.6750931739807129</v>
       </c>
-      <c r="B2" t="n">
+      <c r="M2" t="n">
         <v>0.6011964082717896</v>
       </c>
-      <c r="C2" t="n">
+      <c r="N2" t="n">
         <v>0.6424001455307007</v>
       </c>
-      <c r="D2" t="n">
+      <c r="O2" t="n">
         <v>19</v>
       </c>
-      <c r="E2" t="n">
+      <c r="P2" t="n">
         <v>17</v>
       </c>
-      <c r="F2" t="n">
+      <c r="Q2" t="n">
         <v>19</v>
       </c>
-      <c r="G2" t="n">
+      <c r="R2" t="n">
         <v>0.7091871500015259</v>
       </c>
-      <c r="H2" t="n">
+      <c r="S2" t="n">
         <v>0.5098814368247986</v>
       </c>
-      <c r="I2" t="n">
+      <c r="T2" t="n">
         <v>0.4736172556877136</v>
       </c>
-      <c r="J2" t="n">
+      <c r="U2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="V2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="n">
+      <c r="X2" t="n">
         <v>0.6757199168205261</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Y2" t="n">
         <v>0.5932203531265259</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Z2" t="n">
         <v>0.630687952041626</v>
       </c>
-      <c r="P2" t="n">
+      <c r="AA2" t="n">
         <v>0.7364118695259094</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="AB2" t="n">
         <v>0.4110671877861023</v>
       </c>
-      <c r="R2" t="n">
+      <c r="AC2" t="n">
         <v>0.4453909695148468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2005-02-24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2009-02-24</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3" t="n">
+        <v>32</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>100</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.6760870814323425</v>
       </c>
-      <c r="B3" t="n">
+      <c r="M3" t="n">
         <v>0.6103379726409912</v>
       </c>
-      <c r="C3" t="n">
+      <c r="N3" t="n">
         <v>0.6313720345497131</v>
       </c>
-      <c r="D3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="O3" t="n">
+        <v>20</v>
+      </c>
+      <c r="P3" t="n">
         <v>15</v>
       </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="Q3" t="n">
+        <v>20</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.6966966390609741</v>
       </c>
-      <c r="H3" t="n">
+      <c r="S3" t="n">
         <v>0.579365074634552</v>
       </c>
-      <c r="I3" t="n">
+      <c r="T3" t="n">
         <v>0.5391031503677368</v>
       </c>
-      <c r="J3" t="n">
-        <v>20</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="U3" t="n">
+        <v>20</v>
+      </c>
+      <c r="V3" t="n">
         <v>7</v>
       </c>
-      <c r="L3" t="n">
-        <v>20</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="W3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X3" t="n">
         <v>0.6760870814323425</v>
       </c>
-      <c r="N3" t="n">
+      <c r="Y3" t="n">
         <v>0.6053677797317505</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Z3" t="n">
         <v>0.6313720345497131</v>
       </c>
-      <c r="P3" t="n">
+      <c r="AA3" t="n">
         <v>0.6966966390609741</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="AB3" t="n">
         <v>0.5357142686843872</v>
       </c>
-      <c r="R3" t="n">
+      <c r="AC3" t="n">
         <v>0.5391031503677368</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2010-02-24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2014-02-24</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>100</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.6705643534660339</v>
       </c>
-      <c r="B4" t="n">
+      <c r="M4" t="n">
         <v>0.5914512872695923</v>
       </c>
-      <c r="C4" t="n">
+      <c r="N4" t="n">
         <v>0.64079749584198</v>
       </c>
-      <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>20</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="O4" t="n">
+        <v>20</v>
+      </c>
+      <c r="P4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q4" t="n">
         <v>19</v>
       </c>
-      <c r="G4" t="n">
+      <c r="R4" t="n">
         <v>0.7014102935791016</v>
       </c>
-      <c r="H4" t="n">
+      <c r="S4" t="n">
         <v>0.567460298538208</v>
       </c>
-      <c r="I4" t="n">
+      <c r="T4" t="n">
         <v>0.5242958068847656</v>
       </c>
-      <c r="J4" t="n">
+      <c r="U4" t="n">
         <v>13</v>
       </c>
-      <c r="K4" t="n">
+      <c r="V4" t="n">
         <v>10</v>
       </c>
-      <c r="L4" t="n">
-        <v>20</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="W4" t="n">
+        <v>20</v>
+      </c>
+      <c r="X4" t="n">
         <v>0.6705643534660339</v>
       </c>
-      <c r="N4" t="n">
+      <c r="Y4" t="n">
         <v>0.5914512872695923</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Z4" t="n">
         <v>0.6377219557762146</v>
       </c>
-      <c r="P4" t="n">
+      <c r="AA4" t="n">
         <v>0.7030771374702454</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AB4" t="n">
         <v>0.5357142686843872</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AC4" t="n">
         <v>0.5242958068847656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2015-02-24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2019-02-24</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20</v>
+      </c>
+      <c r="H5" t="n">
+        <v>32</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>100</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.6768831014633179</v>
       </c>
-      <c r="B5" t="n">
+      <c r="M5" t="n">
         <v>0.6047666072845459</v>
       </c>
-      <c r="C5" t="n">
+      <c r="N5" t="n">
         <v>0.6290987133979797</v>
       </c>
-      <c r="D5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="O5" t="n">
+        <v>20</v>
+      </c>
+      <c r="P5" t="n">
         <v>19</v>
       </c>
-      <c r="F5" t="n">
+      <c r="Q5" t="n">
         <v>18</v>
       </c>
-      <c r="G5" t="n">
+      <c r="R5" t="n">
         <v>0.6980745196342468</v>
       </c>
-      <c r="H5" t="n">
+      <c r="S5" t="n">
         <v>0.5787037014961243</v>
       </c>
-      <c r="I5" t="n">
+      <c r="T5" t="n">
         <v>0.5468530654907227</v>
       </c>
-      <c r="J5" t="n">
+      <c r="U5" t="n">
         <v>15</v>
       </c>
-      <c r="K5" t="n">
+      <c r="V5" t="n">
         <v>5</v>
       </c>
-      <c r="L5" t="n">
+      <c r="W5" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="n">
+      <c r="X5" t="n">
         <v>0.6768831014633179</v>
       </c>
-      <c r="N5" t="n">
+      <c r="Y5" t="n">
         <v>0.6017875075340271</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Z5" t="n">
         <v>0.6283562183380127</v>
       </c>
-      <c r="P5" t="n">
+      <c r="AA5" t="n">
         <v>0.7008224725723267</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AB5" t="n">
         <v>0.5324074029922485</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AC5" t="n">
         <v>0.5215200185775757</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>0.6746569275856018</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.6019380688667297</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.6359170973300934</v>
+      </c>
+      <c r="O6" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="P6" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>19</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.7013421505689621</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5588526278734207</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5209673196077347</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.6748136132955551</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.5979567319154739</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.6320345401763916</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.7092520296573639</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.5037257820367813</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.5075774863362312</v>
       </c>
     </row>
   </sheetData>
